--- a/docs/ComparingFeaturesAmongM1M2M3.xlsx
+++ b/docs/ComparingFeaturesAmongM1M2M3.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Folha 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
-  <si>
-    <t>Tabela 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -144,23 +149,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -306,42 +303,39 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -349,29 +343,80 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -570,7 +615,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -589,7 +634,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -619,7 +664,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -645,7 +690,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -671,7 +716,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -697,7 +742,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -723,7 +768,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -749,7 +794,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -775,7 +820,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -801,7 +846,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -827,7 +872,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -840,9 +885,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -859,7 +910,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -878,7 +929,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -904,7 +955,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -930,7 +981,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -956,7 +1007,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -982,7 +1033,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1008,7 +1059,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1034,7 +1085,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1060,7 +1111,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1086,7 +1137,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1112,7 +1163,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1125,9 +1176,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1141,7 +1198,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1160,7 +1217,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1190,7 +1247,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1216,7 +1273,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1242,7 +1299,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1268,7 +1325,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1294,7 +1351,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1320,7 +1377,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1346,7 +1403,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1372,7 +1429,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1398,7 +1455,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1411,425 +1468,428 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.53125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.0156" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.3906" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="45.25" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+    </row>
+    <row r="2" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s" s="6">
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="300.25" customHeight="1">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="32" customHeight="1">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="90.25" customHeight="1">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="E3" t="s" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" ht="300.35" customHeight="1">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s" s="8">
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="32" customHeight="1">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="C4" t="s" s="9">
+      <c r="B9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="D4" t="s" s="9">
+      <c r="B10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="E4" t="s" s="9">
+      <c r="B11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="32" customHeight="1">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" ht="32.05" customHeight="1">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s" s="8">
+      <c r="B12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20" customHeight="1">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="C5" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" ht="90.35" customHeight="1">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s" s="8">
+      <c r="B13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="C6" t="s" s="9">
+      <c r="B14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20" customHeight="1">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="D6" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s" s="10">
+      <c r="B15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20" customHeight="1">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s" s="8">
+      <c r="B17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="C7" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="7">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s" s="8">
+      <c r="B18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="C8" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s" s="8">
+      <c r="B19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20" customHeight="1">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="C9" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" ht="32.05" customHeight="1">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s" s="8">
+      <c r="B20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="C10" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s" s="8">
+      <c r="B21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20" customHeight="1">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="C11" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s" s="10">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="7">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" ht="32.05" customHeight="1">
-      <c r="A13" s="7">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="7">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="7">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="7">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="7">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="7">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="C18" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="7">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="7">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="D20" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="7">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="D21" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="E21" t="s" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="7">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s" s="8">
+      <c r="B22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C22" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="7">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s" s="8">
-        <v>34</v>
-      </c>
-      <c r="C23" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="E23" t="s" s="10">
-        <v>16</v>
+      <c r="C22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>